--- a/Comparativa_comercializadoras_eléctricas_Julio_2025.xlsx
+++ b/Comparativa_comercializadoras_eléctricas_Julio_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Cosas importantes\Proyectos personales\Comparadores comercializadoras eléctricas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0A3A2C-B493-4A18-ACE6-02E1740600B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85F90BB-D77F-48EC-9575-9ECDE85F341C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="945" windowWidth="29040" windowHeight="15720" xr2:uid="{9F8774F6-A061-4BA8-94FB-56C9D8D15438}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F8774F6-A061-4BA8-94FB-56C9D8D15438}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculadora tarifas" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Comparativa de costes mensuales</a:t>
+              <a:t>Comparativa de costes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -698,49 +698,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>50.747399999999999</c:v>
+                  <c:v>46.3551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.3309</c:v>
+                  <c:v>50.553800000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.134900000000002</c:v>
+                  <c:v>41.430399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.3414</c:v>
+                  <c:v>45.9437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.377699999999997</c:v>
+                  <c:v>48.387900000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.177099999999996</c:v>
+                  <c:v>48.000700000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.439</c:v>
+                  <c:v>46.173599999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.696599999999997</c:v>
+                  <c:v>45.362900000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.352699999999999</c:v>
+                  <c:v>47.577199999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.010400000000004</c:v>
+                  <c:v>44.648999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.874599999999994</c:v>
+                  <c:v>47.746600000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.741499999999995</c:v>
+                  <c:v>49.561599999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.869500000000002</c:v>
+                  <c:v>44.721600000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.181400000000004</c:v>
+                  <c:v>49.6584</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.056899999999999</c:v>
+                  <c:v>52.042099999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,6 +916,431 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparativa de ahorros</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> mensuales</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculadora tarifas'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Tarifa actual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plenitude Tarifa fácil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Plenitude Tarifa tendencia luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Octopus energy relax</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Octopus energy (Octopus 3)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total energies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Endesa -Tarifa conecta</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A Tu Lado Energía (Tarifa Milenial)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>A Tu Lado Energía (disc horaria)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Visalia Tarifa Fijo 24 h</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Naturgy - Tarifa por uso Luz</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Naturgy - Tarifa Noche</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iberdrola - Plan Online 3 Periodos</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Repsol - Tarifa Ahorro Plus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Repsol - Tarifa Tranquilísima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculadora tarifas'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Tarifa actual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plenitude Tarifa fácil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Plenitude Tarifa tendencia luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Octopus energy relax</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Octopus energy (Octopus 3)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total energies</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Endesa -Tarifa conecta</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A Tu Lado Energía (Tarifa Milenial)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>A Tu Lado Energía (disc horaria)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Visalia Tarifa Fijo 24 h</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Naturgy - Tarifa por uso Luz</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Naturgy - Tarifa Noche</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iberdrola - Plan Online 3 Periodos</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Repsol - Tarifa Ahorro Plus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Repsol - Tarifa Tranquilísima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculadora tarifas'!$T$2:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.3434827586206923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0945172413793118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42558620689655219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.10289655172414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7023448275862088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18775862068966229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0264137931034452</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2642413793103424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7649310344827653</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.4394827586206904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.3170689655172398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6898275862068945</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.4172068965517246</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.8831034482758602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9B34-4A99-8F2D-6583A684EB04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1226254432"/>
+        <c:axId val="1226251152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1226254432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226251152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1226251152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226254432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -956,7 +1381,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1492,6 +2460,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>669073</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>687658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>374865</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3304487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092C59A2-C477-4DE7-BFBA-9CE0AD4799C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1799,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E26A393-DBD0-4841-B413-7035120B0A94}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="P21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1809,7 +2815,7 @@
     <col min="2" max="2" width="32.44140625" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" customWidth="1"/>
@@ -1898,16 +2904,16 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>0.14749999999999999</v>
+        <v>0.11326600000000001</v>
       </c>
       <c r="E2" s="14">
-        <v>4.0266999999999997E-2</v>
+        <v>3.3391999999999998E-2</v>
       </c>
       <c r="F2" s="14">
-        <v>0.112138</v>
+        <v>0.108163</v>
       </c>
       <c r="G2" s="14">
         <v>3.45</v>
@@ -1916,41 +2922,41 @@
         <v>3.45</v>
       </c>
       <c r="I2" s="14">
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J2" s="14">
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K2" s="14">
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L2" s="14">
         <f>D$2</f>
-        <v>0.14749999999999999</v>
+        <v>0.11326600000000001</v>
       </c>
       <c r="M2" s="14">
         <f>D$2</f>
-        <v>0.14749999999999999</v>
+        <v>0.11326600000000001</v>
       </c>
       <c r="N2" s="14">
         <f>D$2</f>
-        <v>0.14749999999999999</v>
+        <v>0.11326600000000001</v>
       </c>
       <c r="O2">
         <f>ROUND(I2*L2+J2*M2+K2*N2,2)</f>
-        <v>21.85</v>
+        <v>21.18</v>
       </c>
       <c r="P2">
         <f>ROUND((G2*E2+H2*F2)*C2,2)</f>
-        <v>16.829999999999998</v>
+        <v>14.16</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q16" si="0">ROUND((O2+P2+0.012742*C2),2)</f>
-        <v>39.090000000000003</v>
+        <v>35.71</v>
       </c>
       <c r="R2" s="1">
         <f>ROUND((Q2*1.05112696+0.02663*C2),2)*1.21</f>
-        <v>50.747399999999999</v>
+        <v>46.3551</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>39</v>
@@ -1968,7 +2974,7 @@
       </c>
       <c r="C3">
         <f>C$2</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>0.127668</v>
@@ -1987,15 +2993,15 @@
       </c>
       <c r="I3" s="14">
         <f t="shared" ref="I3:K4" si="1">I$2</f>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J3" s="14">
         <f t="shared" si="1"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K3" s="14">
         <f t="shared" si="1"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L3" s="14">
         <f>D3</f>
@@ -2011,30 +3017,30 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O16" si="2">ROUND(I3*L3+J3*M3+K3*N3,2)</f>
-        <v>18.91</v>
+        <v>23.87</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P16" si="3">ROUND((G3*E3+H3*F3)*C3,2)</f>
-        <v>16.3</v>
+        <v>14.77</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>35.619999999999997</v>
+        <v>39.01</v>
       </c>
       <c r="R3" s="1">
         <f>ROUND((Q3*1.05112696+0.02663*C3),2)*1.21</f>
-        <v>46.3309</v>
+        <v>50.553800000000003</v>
       </c>
       <c r="S3" t="s">
         <v>9</v>
       </c>
       <c r="T3" s="1">
         <f>(R$2-R3)*(30/C3)</f>
-        <v>4.1404687499999993</v>
+        <v>-4.3434827586206923</v>
       </c>
       <c r="U3" s="1">
         <f>T3*12.166666667</f>
-        <v>50.375703126380145</v>
+        <v>-52.845706897999584</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2046,7 +3052,7 @@
       </c>
       <c r="C4">
         <f>C$2</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>0.11</v>
@@ -2065,15 +3071,15 @@
       </c>
       <c r="I4" s="14">
         <f t="shared" si="1"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" si="1"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K4" s="14">
         <f t="shared" si="1"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L4" s="14">
         <f>D4</f>
@@ -2089,30 +3095,30 @@
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>16.29</v>
+        <v>20.57</v>
       </c>
       <c r="P4">
         <f t="shared" si="3"/>
-        <v>8.36</v>
+        <v>7.57</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>25.06</v>
+        <v>28.51</v>
       </c>
       <c r="R4" s="1">
         <f>ROUND((Q4*1.05112696+0.02663*C4+3.5),2)*1.21</f>
-        <v>37.134900000000002</v>
+        <v>41.430399999999999</v>
       </c>
       <c r="S4" t="s">
         <v>10</v>
       </c>
       <c r="T4" s="1">
         <f>(R$2-R4)*(30/C4)</f>
-        <v>12.761718749999996</v>
+        <v>5.0945172413793118</v>
       </c>
       <c r="U4" s="1">
         <f>T4*12.166666667</f>
-        <v>155.26757812925385</v>
+        <v>61.983293105146466</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2124,10 +3130,10 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C17" si="4">C$2</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.115</v>
+        <v>0.122</v>
       </c>
       <c r="E5">
         <v>2.7E-2</v>
@@ -2143,54 +3149,54 @@
       </c>
       <c r="I5" s="14">
         <f t="shared" ref="I5:K17" si="5">I$2</f>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K5" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" ref="L5:L9" si="6">D5</f>
-        <v>0.115</v>
+        <v>0.122</v>
       </c>
       <c r="M5" s="14">
         <f t="shared" ref="M5:M9" si="7">D5</f>
-        <v>0.115</v>
+        <v>0.122</v>
       </c>
       <c r="N5" s="14">
         <f t="shared" ref="N5:N9" si="8">D5</f>
-        <v>0.115</v>
+        <v>0.122</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>17.03</v>
+        <v>22.81</v>
       </c>
       <c r="P5">
         <f t="shared" si="3"/>
-        <v>13.47</v>
+        <v>12.21</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>30.91</v>
+        <v>35.39</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" ref="R5:R16" si="9">ROUND((Q5*1.05112696+0.02663*C5),2)*1.21</f>
-        <v>40.3414</v>
+        <v>45.9437</v>
       </c>
       <c r="S5" t="s">
         <v>9</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" ref="T5:T16" si="10">(R$2-R5)*(30/C5)</f>
-        <v>9.7556249999999984</v>
+        <v>0.42558620689655219</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:U16" si="11">T5*12.166666667</f>
-        <v>118.69343750325186</v>
+        <v>5.1779655173832468</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2202,7 +3208,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>39</v>
@@ -2221,51 +3227,51 @@
       </c>
       <c r="I6" s="14">
         <f t="shared" si="5"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L6" s="14">
-        <v>7.5999999999999998E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M6" s="14">
-        <v>0.113</v>
+        <v>0.121</v>
       </c>
       <c r="N6" s="14">
-        <v>0.188</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>17.059999999999999</v>
+        <v>24.73</v>
       </c>
       <c r="P6">
         <f t="shared" si="3"/>
-        <v>13.47</v>
+        <v>12.21</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>30.94</v>
+        <v>37.31</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="9"/>
-        <v>40.377699999999997</v>
+        <v>48.387900000000002</v>
       </c>
       <c r="S6" t="s">
         <v>10</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="10"/>
-        <v>9.721593750000002</v>
+        <v>-2.10289655172414</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="11"/>
-        <v>118.27939062824055</v>
+        <v>-25.585241380011336</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -2277,7 +3283,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>0.11899999999999999</v>
@@ -2296,15 +3302,15 @@
       </c>
       <c r="I7" s="14">
         <f t="shared" si="5"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L7" s="14">
         <f t="shared" si="6"/>
@@ -2320,30 +3326,30 @@
       </c>
       <c r="O7">
         <f>ROUND(I7*L7+J7*M7+K7*N7,2)</f>
-        <v>17.63</v>
+        <v>22.25</v>
       </c>
       <c r="P7">
         <f t="shared" si="3"/>
-        <v>15.88</v>
+        <v>14.39</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>33.92</v>
+        <v>37.01</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="9"/>
-        <v>44.177099999999996</v>
+        <v>48.000700000000002</v>
       </c>
       <c r="S7" t="s">
         <v>9</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="10"/>
-        <v>6.1596562500000029</v>
+        <v>-1.7023448275862088</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="11"/>
-        <v>74.942484377053248</v>
+        <v>-20.711862069532987</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2355,16 +3361,16 @@
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.121</v>
+        <v>0.11550000000000001</v>
       </c>
       <c r="E8">
-        <v>3.2099999999999997E-2</v>
+        <v>3.2048186300000003E-2</v>
       </c>
       <c r="F8">
-        <v>0.10390000000000001</v>
+        <v>0.1039193096</v>
       </c>
       <c r="G8" s="14">
         <v>3.45</v>
@@ -2374,54 +3380,54 @@
       </c>
       <c r="I8" s="14">
         <f t="shared" si="5"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L8" s="14">
         <f t="shared" si="6"/>
-        <v>0.121</v>
+        <v>0.11550000000000001</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" si="7"/>
-        <v>0.121</v>
+        <v>0.11550000000000001</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" si="8"/>
-        <v>0.121</v>
+        <v>0.11550000000000001</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>17.920000000000002</v>
+        <v>21.6</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>15.01</v>
+        <v>13.6</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>33.340000000000003</v>
+        <v>35.57</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="9"/>
-        <v>43.439</v>
+        <v>46.173599999999993</v>
       </c>
       <c r="S8" t="s">
         <v>9</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="10"/>
-        <v>6.8516249999999985</v>
+        <v>0.18775862068966229</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="11"/>
-        <v>83.361437502283849</v>
+        <v>2.2843965517868106</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -2433,7 +3439,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>0.112649</v>
@@ -2442,7 +3448,7 @@
         <v>3.32E-2</v>
       </c>
       <c r="F9">
-        <v>0.1016</v>
+        <v>0.10159700000000001</v>
       </c>
       <c r="G9" s="14">
         <v>3.45</v>
@@ -2452,15 +3458,15 @@
       </c>
       <c r="I9" s="14">
         <f t="shared" si="5"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" si="6"/>
@@ -2476,30 +3482,30 @@
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>16.68</v>
+        <v>21.07</v>
       </c>
       <c r="P9">
         <f t="shared" si="3"/>
-        <v>14.88</v>
+        <v>13.49</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>31.97</v>
+        <v>34.93</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="9"/>
-        <v>41.696599999999997</v>
+        <v>45.362900000000003</v>
       </c>
       <c r="S9" t="s">
         <v>9</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="10"/>
-        <v>8.4851250000000018</v>
+        <v>1.0264137931034452</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="11"/>
-        <v>103.2356875028284</v>
+        <v>12.488034483100719</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -2511,7 +3517,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>39</v>
@@ -2530,51 +3536,51 @@
       </c>
       <c r="I10" s="14">
         <f t="shared" si="5"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L10" s="14">
-        <v>5.3499999999999999E-2</v>
+        <v>7.5188000000000005E-2</v>
       </c>
       <c r="M10" s="14">
-        <v>8.8400000000000006E-2</v>
+        <v>0.11121</v>
       </c>
       <c r="N10" s="14">
-        <v>0.15570000000000001</v>
+        <v>0.183702</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>13.27</v>
+        <v>22.81</v>
       </c>
       <c r="P10">
         <f t="shared" si="3"/>
-        <v>14.88</v>
+        <v>13.49</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>28.56</v>
+        <v>36.67</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="9"/>
-        <v>37.352699999999999</v>
+        <v>47.577199999999998</v>
       </c>
       <c r="S10" t="s">
         <v>10</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="10"/>
-        <v>12.55753125</v>
+        <v>-1.2642413793103424</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="11"/>
-        <v>152.78329687918583</v>
+        <v>-15.381603448697247</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -2586,16 +3592,16 @@
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="15">
-        <v>0.109</v>
+        <v>0.109995</v>
       </c>
       <c r="E11">
-        <v>6.0273E-2</v>
+        <v>6.7123000000000002E-2</v>
       </c>
       <c r="F11">
-        <v>6.0273E-2</v>
+        <v>6.7123000000000002E-2</v>
       </c>
       <c r="G11" s="14">
         <v>3.45</v>
@@ -2605,54 +3611,54 @@
       </c>
       <c r="I11" s="14">
         <f t="shared" si="5"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L11" s="14">
         <f>$D11</f>
-        <v>0.109</v>
+        <v>0.109995</v>
       </c>
       <c r="M11" s="14">
         <f t="shared" ref="M11:N11" si="12">$D11</f>
-        <v>0.109</v>
+        <v>0.109995</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" si="12"/>
-        <v>0.109</v>
+        <v>0.109995</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>16.14</v>
+        <v>20.57</v>
       </c>
       <c r="P11">
         <f t="shared" si="3"/>
-        <v>13.31</v>
+        <v>13.43</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>29.86</v>
+        <v>34.369999999999997</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="9"/>
-        <v>39.010400000000004</v>
+        <v>44.648999999999994</v>
       </c>
       <c r="S11" t="s">
         <v>9</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="10"/>
-        <v>11.003437499999995</v>
+        <v>1.7649310344827653</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="11"/>
-        <v>133.87515625366774</v>
+        <v>21.473327586795289</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -2664,16 +3670,16 @@
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="15">
-        <v>0.11917</v>
+        <v>0.11916599999999999</v>
       </c>
       <c r="E12">
-        <v>3.3390000000000003E-2</v>
+        <v>3.3391999999999998E-2</v>
       </c>
       <c r="F12">
-        <v>0.10816000000000001</v>
+        <v>0.108163</v>
       </c>
       <c r="G12" s="14">
         <v>3.45</v>
@@ -2683,54 +3689,54 @@
       </c>
       <c r="I12" s="14">
         <f t="shared" si="5"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L12" s="14">
         <f>$D$12</f>
-        <v>0.11917</v>
+        <v>0.11916599999999999</v>
       </c>
       <c r="M12" s="14">
         <f t="shared" ref="M12:N12" si="13">$D$12</f>
-        <v>0.11917</v>
+        <v>0.11916599999999999</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" si="13"/>
-        <v>0.11917</v>
+        <v>0.11916599999999999</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>17.649999999999999</v>
+        <v>22.28</v>
       </c>
       <c r="P12">
         <f t="shared" si="3"/>
-        <v>15.63</v>
+        <v>14.16</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>33.69</v>
+        <v>36.81</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="9"/>
-        <v>43.874599999999994</v>
+        <v>47.746600000000001</v>
       </c>
       <c r="S12" t="s">
         <v>9</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="10"/>
-        <v>6.4432500000000044</v>
+        <v>-1.4394827586206904</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="11"/>
-        <v>78.392875002147804</v>
+        <v>-17.513706897031561</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -2742,16 +3748,16 @@
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E13">
-        <v>3.3399999999999999E-2</v>
+        <v>3.3391999999999998E-2</v>
       </c>
       <c r="F13">
-        <v>0.1082</v>
+        <v>0.108163</v>
       </c>
       <c r="G13" s="14">
         <v>3.45</v>
@@ -2761,51 +3767,51 @@
       </c>
       <c r="I13" s="14">
         <f>I$2</f>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K13" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L13" s="14">
-        <v>8.2299999999999998E-2</v>
+        <v>8.2334000000000004E-2</v>
       </c>
       <c r="M13" s="14">
-        <v>0.1164</v>
+        <v>0.116414</v>
       </c>
       <c r="N13" s="14">
-        <v>0.1855</v>
+        <v>0.18546099999999999</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>17.54</v>
+        <v>23.7</v>
       </c>
       <c r="P13">
         <f t="shared" si="3"/>
-        <v>15.63</v>
+        <v>14.16</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>33.58</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="9"/>
-        <v>43.741499999999995</v>
+        <v>49.561599999999999</v>
       </c>
       <c r="S13" t="s">
         <v>10</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="10"/>
-        <v>6.5680312500000042</v>
+        <v>-3.3170689655172398</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="11"/>
-        <v>79.911046877189392</v>
+        <v>-40.357672414898772</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -2817,7 +3823,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>39</v>
@@ -2836,15 +3842,15 @@
       </c>
       <c r="I14" s="14">
         <f t="shared" si="5"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L14" s="14">
         <v>6.5000000000000002E-2</v>
@@ -2857,30 +3863,30 @@
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>14.67</v>
+        <v>20.05</v>
       </c>
       <c r="P14">
         <f t="shared" si="3"/>
-        <v>15.46</v>
+        <v>14.01</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>30.54</v>
+        <v>34.43</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="9"/>
-        <v>39.869500000000002</v>
+        <v>44.721600000000002</v>
       </c>
       <c r="S14" t="s">
         <v>10</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="10"/>
-        <v>10.198031249999996</v>
+        <v>1.6898275862068945</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="11"/>
-        <v>124.0760468783993</v>
+        <v>20.559568966080491</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -2892,7 +3898,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="15">
         <v>0.12989999999999999</v>
@@ -2911,15 +3917,15 @@
       </c>
       <c r="I15" s="14">
         <f t="shared" si="5"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K15" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L15" s="14">
         <f>$D$15</f>
@@ -2935,30 +3941,30 @@
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>19.239999999999998</v>
+        <v>24.29</v>
       </c>
       <c r="P15">
         <f t="shared" si="3"/>
-        <v>15.06</v>
+        <v>13.65</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>34.71</v>
+        <v>38.31</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="9"/>
-        <v>45.181400000000004</v>
+        <v>49.6584</v>
       </c>
       <c r="S15" t="s">
         <v>9</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" si="10"/>
-        <v>5.2181249999999952</v>
+        <v>-3.4172068965517246</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="11"/>
-        <v>63.487187501739314</v>
+        <v>-41.576017242518382</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -2970,7 +3976,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="15">
         <v>0.1399</v>
@@ -2989,15 +3995,15 @@
       </c>
       <c r="I16" s="14">
         <f t="shared" si="5"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K16" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L16" s="14">
         <f>$D$16</f>
@@ -3013,30 +4019,30 @@
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>20.72</v>
+        <v>26.16</v>
       </c>
       <c r="P16">
         <f t="shared" si="3"/>
-        <v>15.06</v>
+        <v>13.65</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>36.19</v>
+        <v>40.18</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="9"/>
-        <v>47.056899999999999</v>
+        <v>52.042099999999998</v>
       </c>
       <c r="S16" t="s">
         <v>9</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" si="10"/>
-        <v>3.4598437500000001</v>
+        <v>-5.8831034482758602</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="11"/>
-        <v>42.094765626153283</v>
+        <v>-71.577758622650663</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -3048,7 +4054,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>39</v>
@@ -3067,15 +4073,15 @@
       </c>
       <c r="I17" s="14">
         <f t="shared" si="5"/>
-        <v>66.790000000000006</v>
+        <v>71</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="5"/>
-        <v>44.09</v>
+        <v>53</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" si="5"/>
-        <v>37.229999999999997</v>
+        <v>63</v>
       </c>
       <c r="L17" s="14">
         <v>0.12989999999999999</v>
@@ -3088,30 +4094,30 @@
       </c>
       <c r="O17">
         <f t="shared" ref="O17" si="15">ROUND(I17*L17+J17*M17+K17*N17,2)</f>
-        <v>22.65</v>
+        <v>29.65</v>
       </c>
       <c r="P17">
         <f t="shared" ref="P17" si="16">ROUND((G17*E17+H17*F17)*C17,2)</f>
-        <v>12.04</v>
+        <v>10.92</v>
       </c>
       <c r="Q17">
         <f t="shared" ref="Q17" si="17">ROUND((O17+P17+0.012742*C17),2)</f>
-        <v>35.1</v>
+        <v>40.94</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" ref="R17" si="18">ROUND((Q17*1.05112696+0.02663*C17),2)*1.21</f>
-        <v>45.677500000000002</v>
+        <v>53.010100000000001</v>
       </c>
       <c r="S17" t="s">
         <v>10</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" ref="T17" si="19">(R$2-R17)*(30/C17)</f>
-        <v>4.7530312499999976</v>
+        <v>-6.8844827586206909</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" ref="U17" si="20">T17*12.166666667</f>
-        <v>57.828546876584312</v>
+        <v>-83.761206898846567</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="72" x14ac:dyDescent="0.3">
